--- a/世燁老師這邊的報告/研究發想/2.0.3/引用2.xlsx
+++ b/世燁老師這邊的報告/研究發想/2.0.3/引用2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\obsidian-academic-research\世燁老師這邊的報告\研究發想\2.0.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenweicheng/github/obsidian-academic-research/世燁老師這邊的報告/研究發想/2.0.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2471D4FD-5CF0-4449-99A0-B457D4EDC1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3DA90A-836D-664E-B196-DAA112FF65A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="2220" windowWidth="22040" windowHeight="12460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="215">
   <si>
     <r>
       <t>Chai, C. S., Rahmawati, Y., &amp; Jong, M. S. Y. (2020). Indonesian science, mathematics, and engineering preservice teachers’ experiences in STEM-TPACK design-based learning. </t>
@@ -4362,12 +4362,82 @@
     <t>將上述過程轉化為電腦程式，最終實現Face ID功能。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>﻿PAGA1</t>
+  </si>
+  <si>
+    <t>PAGA2</t>
+  </si>
+  <si>
+    <t>AGA3</t>
+  </si>
+  <si>
+    <t>RS1</t>
+  </si>
+  <si>
+    <t>RS2</t>
+  </si>
+  <si>
+    <t>RS3</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>IC2</t>
+  </si>
+  <si>
+    <t>IC3</t>
+  </si>
+  <si>
+    <t>FU1</t>
+  </si>
+  <si>
+    <t>FU2</t>
+  </si>
+  <si>
+    <t>FU3</t>
+  </si>
+  <si>
+    <t>EALG1</t>
+  </si>
+  <si>
+    <t>EALG2</t>
+  </si>
+  <si>
+    <t>EALG3</t>
+  </si>
+  <si>
+    <t>PAGA</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>FU</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EALG</t>
+  </si>
+  <si>
+    <t>调节效应 1</t>
+  </si>
+  <si>
+    <t>调节效应 2</t>
+  </si>
+  <si>
+    <t>调节效应 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4537,7 +4607,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4546,10 +4616,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4558,25 +4642,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4864,743 +4934,743 @@
       <selection activeCell="B152" sqref="B152:H167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1">
       <c r="A144" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="17">
       <c r="A145" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="17">
       <c r="A146" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="23">
       <c r="D151" s="2"/>
     </row>
   </sheetData>
@@ -5612,24 +5682,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F952F6B0-2E6F-4B4F-9EBE-5A39255B5050}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:H23"/>
+    <sheetView tabSelected="1" topLeftCell="H41" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48:Q52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>162</v>
       </c>
@@ -5645,8 +5715,8 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="18" t="s">
         <v>180</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -5663,8 +5733,8 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:8">
+      <c r="A3" s="19"/>
       <c r="B3" s="9" t="s">
         <v>138</v>
       </c>
@@ -5679,8 +5749,8 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="20"/>
       <c r="B4" s="10" t="s">
         <v>139</v>
       </c>
@@ -5695,8 +5765,8 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="21" t="s">
         <v>130</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -5713,8 +5783,8 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="22"/>
       <c r="B6" s="9" t="s">
         <v>140</v>
       </c>
@@ -5729,8 +5799,8 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="23"/>
       <c r="B7" s="10" t="s">
         <v>141</v>
       </c>
@@ -5745,8 +5815,8 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="18" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -5763,8 +5833,8 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="19"/>
       <c r="B9" s="9" t="s">
         <v>142</v>
       </c>
@@ -5779,8 +5849,8 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="20"/>
       <c r="B10" s="10" t="s">
         <v>143</v>
       </c>
@@ -5795,8 +5865,8 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="18" t="s">
         <v>134</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -5813,8 +5883,8 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="19"/>
       <c r="B12" s="9" t="s">
         <v>144</v>
       </c>
@@ -5829,8 +5899,8 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="20"/>
       <c r="B13" s="10" t="s">
         <v>145</v>
       </c>
@@ -5845,8 +5915,8 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="18" t="s">
         <v>136</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -5863,8 +5933,8 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="19"/>
       <c r="B15" s="9" t="s">
         <v>146</v>
       </c>
@@ -5879,8 +5949,8 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="20"/>
       <c r="B16" s="10" t="s">
         <v>147</v>
       </c>
@@ -5895,60 +5965,378 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G19" s="22" t="s">
+    <row r="19" spans="1:25" ht="15">
+      <c r="G19" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="16" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G20" s="19" t="s">
+    <row r="20" spans="1:25" ht="16">
+      <c r="G20" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="17" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G21" s="19" t="s">
+    <row r="21" spans="1:25" ht="15">
+      <c r="G21" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G22" s="19" t="s">
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:25" ht="15">
+      <c r="G22" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-    </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G23" s="21" t="s">
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:25" ht="15">
+      <c r="G23" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="G30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="G31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="G32" t="s">
+        <v>194</v>
+      </c>
+      <c r="R32" t="s">
+        <v>211</v>
+      </c>
+      <c r="S32" t="s">
+        <v>210</v>
+      </c>
+      <c r="T32" t="s">
+        <v>209</v>
+      </c>
+      <c r="U32" t="s">
+        <v>207</v>
+      </c>
+      <c r="V32" t="s">
+        <v>208</v>
+      </c>
+      <c r="W32" t="s">
+        <v>212</v>
+      </c>
+      <c r="X32" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="7:25">
+      <c r="G33" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>211</v>
+      </c>
+      <c r="R33">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="7:25">
+      <c r="G34" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>210</v>
+      </c>
+      <c r="R34">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="S34">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="7:25">
+      <c r="G35" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>209</v>
+      </c>
+      <c r="R35">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="S35">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="T35">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="7:25">
+      <c r="G36" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>207</v>
+      </c>
+      <c r="R36">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="S36">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="T36">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="U36">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="7:25">
+      <c r="G37" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>208</v>
+      </c>
+      <c r="R37">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="S37">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="T37">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="U37">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="V37">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="7:25">
+      <c r="G38" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>212</v>
+      </c>
+      <c r="R38">
+        <v>-0.47699999999999998</v>
+      </c>
+      <c r="S38">
+        <v>-0.55300000000000005</v>
+      </c>
+      <c r="T38">
+        <v>-0.495</v>
+      </c>
+      <c r="U38">
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="V38">
+        <v>-0.434</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="7:25">
+      <c r="G39" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>213</v>
+      </c>
+      <c r="R39">
+        <v>-0.51300000000000001</v>
+      </c>
+      <c r="S39">
+        <v>-0.51900000000000002</v>
+      </c>
+      <c r="T39">
+        <v>-0.49</v>
+      </c>
+      <c r="U39">
+        <v>-0.434</v>
+      </c>
+      <c r="V39">
+        <v>-0.51300000000000001</v>
+      </c>
+      <c r="W39">
+        <v>0.872</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="7:25">
+      <c r="G40" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>214</v>
+      </c>
+      <c r="R40">
+        <v>-0.46899999999999997</v>
+      </c>
+      <c r="S40">
+        <v>-0.51400000000000001</v>
+      </c>
+      <c r="T40">
+        <v>-0.51300000000000001</v>
+      </c>
+      <c r="U40">
+        <v>-0.504</v>
+      </c>
+      <c r="V40">
+        <v>-0.498</v>
+      </c>
+      <c r="W40">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="X40">
+        <v>0.89</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="7:25">
+      <c r="G41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="7:25">
+      <c r="G42" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="7:25">
+      <c r="G43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="7:25">
+      <c r="G44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="7:25">
+      <c r="M48" t="s">
+        <v>211</v>
+      </c>
+      <c r="N48" t="s">
+        <v>210</v>
+      </c>
+      <c r="O48" t="s">
+        <v>209</v>
+      </c>
+      <c r="P48" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="12:17">
+      <c r="L49" t="s">
+        <v>211</v>
+      </c>
+      <c r="M49">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="12:17">
+      <c r="L50" t="s">
+        <v>210</v>
+      </c>
+      <c r="M50">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="N50">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="12:17">
+      <c r="L51" t="s">
+        <v>209</v>
+      </c>
+      <c r="M51">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N51">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="O51">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="12:17">
+      <c r="L52" t="s">
+        <v>207</v>
+      </c>
+      <c r="M52">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="N52">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="O52">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="P52">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="12:17">
+      <c r="L53" t="s">
+        <v>208</v>
+      </c>
+      <c r="M53">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="N53">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="O53">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="P53">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="Q53">
+        <v>0.92400000000000004</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
